--- a/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
+++ b/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="575">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,6 +1744,9 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>Para Birimi</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">

--- a/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
+++ b/src/test/java/day13_excelOtomasyonu/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
   <si>
     <t xml:space="preserve">Ülke (İngilizce)</t>
   </si>
@@ -1744,21 +1744,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isimler</t>
-  </si>
-  <si>
-    <t>Isimler</t>
-  </si>
-  <si>
-    <t>Eyup</t>
-  </si>
-  <si>
-    <t>Ertugrul</t>
-  </si>
-  <si>
-    <t>Muammer</t>
   </si>
 </sst>
 </file>
@@ -2043,9 +2028,9 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" customWidth="true" hidden="false" style="0" width="25.67" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,35 +4735,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="G2" t="s" s="0">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="G3" t="s" s="0">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="G4" t="s" s="0">
-        <v>578</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +4824,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
